--- a/results/tables/Table_S4.xlsx
+++ b/results/tables/Table_S4.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Smooth exchange flux ranges" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Rough exchange flux ranges" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Gene essentiality" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Reaction essentiality" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Select transcript abundances" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1970" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2010" uniqueCount="846">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -2480,6 +2481,87 @@
   </si>
   <si>
     <t xml:space="preserve">H2O_transport_via_diffusion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PATRIC ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rough median transcript abundance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smooth median transcript abundance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fig|645463.3.peg.3413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pyruvate kinase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fig|645463.3.peg.3106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTS system, N-acetylglucosamine IIA component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fig|645463.3.peg.2563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTS system, glucose-specific IIA component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fig|645463.3.peg.3057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fig|645463.3.peg.1254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTS system, maltose and glucose-specific IIC component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fig|645463.3.peg.3027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fig|645463.3.peg.3108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fig|645463.3.peg.2714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTS system, glucose-specific IIC component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fig|645463.3.peg.1699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sodium:alanine symporter family protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fig|645463.3.peg.2561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fig|645463.3.peg.3030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fig|645463.3.peg.2553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biosynthetic aromatic amino acid aminotransferase beta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fig|645463.3.peg.2255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fig|645463.3.peg.169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-Hydroxyphenylacetate decarboxylase activating enzyme</t>
   </si>
 </sst>
 </file>
@@ -2489,7 +2571,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2510,6 +2592,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2544,12 +2633,33 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -2578,7 +2688,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2597,6 +2707,30 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2678,11 +2812,11 @@
   </sheetPr>
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.38"/>
@@ -3608,11 +3742,11 @@
   </sheetPr>
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.38"/>
@@ -4539,14 +4673,14 @@
   </sheetPr>
   <dimension ref="A1:C179"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A173" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A173" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A177" activeCellId="0" sqref="A177"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="114.67"/>
   </cols>
   <sheetData>
@@ -6537,14 +6671,14 @@
   </sheetPr>
   <dimension ref="A1:C405"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="152.19"/>
   </cols>
   <sheetData>
@@ -11001,6 +11135,246 @@
       </c>
       <c r="C405" s="0" t="s">
         <v>818</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.12"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="25.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>819</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
+        <v>823</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>824</v>
+      </c>
+      <c r="C2" s="7" t="n">
+        <v>283.5</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="23.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
+        <v>825</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" s="8" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="23.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
+        <v>827</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>828</v>
+      </c>
+      <c r="C4" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" s="8" t="n">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="23.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
+        <v>829</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>828</v>
+      </c>
+      <c r="C5" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" s="8" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="23.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>831</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>832</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="23.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
+        <v>833</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>828</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>832</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="23.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>828</v>
+      </c>
+      <c r="C8" s="8" t="n">
+        <v>85</v>
+      </c>
+      <c r="D8" s="8" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="23.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
+        <v>835</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>832</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="s">
+        <v>837</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>838</v>
+      </c>
+      <c r="C10" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D10" s="8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="23.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="s">
+        <v>839</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>831</v>
+      </c>
+      <c r="C11" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" s="8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="23.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="s">
+        <v>840</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>831</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>832</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="23.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="s">
+        <v>841</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>842</v>
+      </c>
+      <c r="C13" s="8" t="n">
+        <v>16</v>
+      </c>
+      <c r="D13" s="8" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="23.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="s">
+        <v>843</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>842</v>
+      </c>
+      <c r="C14" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="8" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="23.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="9" t="s">
+        <v>844</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>845</v>
+      </c>
+      <c r="C15" s="10" t="n">
+        <v>115</v>
+      </c>
+      <c r="D15" s="10" t="n">
+        <v>136.5</v>
       </c>
     </row>
   </sheetData>
